--- a/MS503/Report_Metrics.xlsx
+++ b/MS503/Report_Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otaku\Documents\SchoolProjects\MS503\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeoconnor/UAT-School-Projects/MS503/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F532FBBF-7074-4C27-BF65-EC369DF34B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC802F-C6E5-F348-8CF6-F7F71DB5A8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{226E26D6-D1AB-4562-A594-4F0862E25809}"/>
+    <workbookView xWindow="14580" yWindow="460" windowWidth="14220" windowHeight="14440" xr2:uid="{226E26D6-D1AB-4562-A594-4F0862E25809}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>PO</t>
   </si>
@@ -242,16 +242,29 @@
   <si>
     <t># To Recoup Average</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cost(total)</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>NPV() - Investment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -731,44 +744,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="13" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -784,9 +770,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="10" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1"/>
@@ -815,19 +798,81 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="13" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="18" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="24" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="20" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="24" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="24" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="20" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="24" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="13" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="24" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="7" applyBorder="1" applyAlignment="1">
@@ -836,41 +881,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="13" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="18" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="24" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="20" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="24" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="24" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="20" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="3" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="6"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30"/>
@@ -903,7 +926,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -922,7 +945,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -941,7 +964,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -960,7 +983,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -979,6 +1002,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -997,7 +1021,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1016,7 +1040,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,193 +1366,193 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>49900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>99800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150000</c:v>
+                  <c:v>149700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>199600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250000</c:v>
+                  <c:v>249500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300000</c:v>
+                  <c:v>299400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350000</c:v>
+                  <c:v>349300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400000</c:v>
+                  <c:v>399200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450000</c:v>
+                  <c:v>449100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500000</c:v>
+                  <c:v>499000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550000</c:v>
+                  <c:v>548900</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>600000</c:v>
+                  <c:v>598800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>650000</c:v>
+                  <c:v>648700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>700000</c:v>
+                  <c:v>698600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>750000</c:v>
+                  <c:v>748500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>800000</c:v>
+                  <c:v>798400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>850000</c:v>
+                  <c:v>848300</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>900000</c:v>
+                  <c:v>898200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>950000</c:v>
+                  <c:v>948100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000000</c:v>
+                  <c:v>998000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1050000</c:v>
+                  <c:v>1047900</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1100000</c:v>
+                  <c:v>1097800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1150000</c:v>
+                  <c:v>1147700</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1200000</c:v>
+                  <c:v>1197600</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1250000</c:v>
+                  <c:v>1247500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1300000</c:v>
+                  <c:v>1297400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1350000</c:v>
+                  <c:v>1347300</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1400000</c:v>
+                  <c:v>1397200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1450000</c:v>
+                  <c:v>1447100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1500000</c:v>
+                  <c:v>1497000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1550000</c:v>
+                  <c:v>1546900</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1600000</c:v>
+                  <c:v>1596800</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1650000</c:v>
+                  <c:v>1646700</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1700000</c:v>
+                  <c:v>1696600</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1750000</c:v>
+                  <c:v>1746500</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1800000</c:v>
+                  <c:v>1796400</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1850000</c:v>
+                  <c:v>1846300</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1900000</c:v>
+                  <c:v>1896200</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1950000</c:v>
+                  <c:v>1946100</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2000000</c:v>
+                  <c:v>1996000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2050000</c:v>
+                  <c:v>2045900</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2100000</c:v>
+                  <c:v>2095800</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2150000</c:v>
+                  <c:v>2145700</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2200000</c:v>
+                  <c:v>2195600</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2250000</c:v>
+                  <c:v>2245500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2300000</c:v>
+                  <c:v>2295400</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2350000</c:v>
+                  <c:v>2345300</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2400000</c:v>
+                  <c:v>2395200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2450000</c:v>
+                  <c:v>2445100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2500000</c:v>
+                  <c:v>2495000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2550000</c:v>
+                  <c:v>2544900</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2600000</c:v>
+                  <c:v>2594800</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2650000</c:v>
+                  <c:v>2644700</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2700000</c:v>
+                  <c:v>2694600</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2750000</c:v>
+                  <c:v>2744500</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2800000</c:v>
+                  <c:v>2794400</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2850000</c:v>
+                  <c:v>2844300</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2900000</c:v>
+                  <c:v>2894200</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2950000</c:v>
+                  <c:v>2944100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3000000</c:v>
+                  <c:v>2994000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3050000</c:v>
+                  <c:v>3043900</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3100000</c:v>
+                  <c:v>3093800</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3150000</c:v>
+                  <c:v>3143700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,193 +1795,193 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>635053.26923076925</c:v>
+                  <c:v>632921.16923076927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>653203.26923076925</c:v>
+                  <c:v>648939.0692307693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>671353.26923076925</c:v>
+                  <c:v>664956.9692307692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>689503.26923076925</c:v>
+                  <c:v>680974.86923076923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>707653.26923076925</c:v>
+                  <c:v>696992.76923076925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>725803.26923076925</c:v>
+                  <c:v>713010.66923076927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>743953.26923076925</c:v>
+                  <c:v>729028.5692307693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>762103.26923076925</c:v>
+                  <c:v>745046.4692307692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>780253.26923076925</c:v>
+                  <c:v>761064.36923076923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>798403.26923076925</c:v>
+                  <c:v>777082.26923076925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>816553.26923076925</c:v>
+                  <c:v>793100.16923076927</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>834703.26923076925</c:v>
+                  <c:v>809118.0692307693</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>852853.26923076925</c:v>
+                  <c:v>825135.9692307692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>871003.26923076925</c:v>
+                  <c:v>841153.86923076923</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>889153.26923076925</c:v>
+                  <c:v>857171.76923076925</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>907303.26923076925</c:v>
+                  <c:v>873189.66923076927</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>925453.26923076925</c:v>
+                  <c:v>889207.5692307693</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>943603.26923076925</c:v>
+                  <c:v>905225.4692307692</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>961753.26923076925</c:v>
+                  <c:v>921243.36923076934</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>979903.26923076925</c:v>
+                  <c:v>937261.26923076925</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>998053.26923076925</c:v>
+                  <c:v>953279.16923076927</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1016203.2692307692</c:v>
+                  <c:v>969297.0692307693</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1034353.2692307692</c:v>
+                  <c:v>985314.9692307692</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1052503.2692307692</c:v>
+                  <c:v>1001332.8692307693</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1070653.2692307692</c:v>
+                  <c:v>1017350.7692307692</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1088803.2692307692</c:v>
+                  <c:v>1033368.6692307693</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1106953.2692307692</c:v>
+                  <c:v>1049386.5692307693</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1125103.2692307692</c:v>
+                  <c:v>1065404.4692307692</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1143253.2692307692</c:v>
+                  <c:v>1081422.3692307693</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1161403.2692307692</c:v>
+                  <c:v>1097440.2692307692</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1179553.2692307692</c:v>
+                  <c:v>1113458.1692307694</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1197703.2692307692</c:v>
+                  <c:v>1129476.0692307693</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1215853.2692307692</c:v>
+                  <c:v>1145493.9692307692</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1234003.2692307692</c:v>
+                  <c:v>1161511.8692307691</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1252153.2692307692</c:v>
+                  <c:v>1177529.7692307692</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1270303.2692307692</c:v>
+                  <c:v>1193547.6692307694</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1288453.2692307692</c:v>
+                  <c:v>1209565.5692307693</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1306603.2692307692</c:v>
+                  <c:v>1225583.4692307692</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1324753.2692307692</c:v>
+                  <c:v>1241601.3692307691</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1342903.2692307692</c:v>
+                  <c:v>1257619.2692307692</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1361053.2692307692</c:v>
+                  <c:v>1273637.1692307694</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1379203.2692307692</c:v>
+                  <c:v>1289655.0692307693</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1397353.2692307692</c:v>
+                  <c:v>1305672.9692307692</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1415503.2692307692</c:v>
+                  <c:v>1321690.8692307691</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1433653.2692307692</c:v>
+                  <c:v>1337708.7692307692</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1451803.2692307692</c:v>
+                  <c:v>1353726.6692307694</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1469953.2692307692</c:v>
+                  <c:v>1369744.5692307693</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1488103.2692307692</c:v>
+                  <c:v>1385762.4692307692</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1506253.2692307692</c:v>
+                  <c:v>1401780.3692307691</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1524403.2692307692</c:v>
+                  <c:v>1417798.2692307692</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1542553.2692307692</c:v>
+                  <c:v>1433816.1692307694</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1560703.2692307692</c:v>
+                  <c:v>1449834.0692307693</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1578853.2692307692</c:v>
+                  <c:v>1465851.9692307692</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1597003.2692307692</c:v>
+                  <c:v>1481869.8692307691</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1615153.2692307692</c:v>
+                  <c:v>1497887.7692307692</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1633303.2692307692</c:v>
+                  <c:v>1513905.6692307694</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1651453.2692307692</c:v>
+                  <c:v>1529923.5692307693</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1669603.2692307692</c:v>
+                  <c:v>1545941.4692307692</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1687753.2692307692</c:v>
+                  <c:v>1561959.3692307691</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1705903.2692307692</c:v>
+                  <c:v>1577977.2692307692</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1724053.2692307692</c:v>
+                  <c:v>1593995.1692307694</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1742203.2692307692</c:v>
+                  <c:v>1610013.0692307693</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1760353.2692307692</c:v>
+                  <c:v>1626030.9692307692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,193 +2660,193 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>18150</c:v>
+                  <c:v>16017.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36300</c:v>
+                  <c:v>32035.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54450</c:v>
+                  <c:v>48053.700000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72600</c:v>
+                  <c:v>64071.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90750</c:v>
+                  <c:v>80089.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108900</c:v>
+                  <c:v>96107.400000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127050</c:v>
+                  <c:v>112125.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>145200</c:v>
+                  <c:v>128143.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>163350</c:v>
+                  <c:v>144161.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181500</c:v>
+                  <c:v>160179</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>199650</c:v>
+                  <c:v>176196.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217800</c:v>
+                  <c:v>192214.80000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>235950</c:v>
+                  <c:v>208232.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>254100</c:v>
+                  <c:v>224250.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272250</c:v>
+                  <c:v>240268.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>290400</c:v>
+                  <c:v>256286.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>308550</c:v>
+                  <c:v>272304.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>326700</c:v>
+                  <c:v>288322.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>344850</c:v>
+                  <c:v>304340.10000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>363000</c:v>
+                  <c:v>320358</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>381150</c:v>
+                  <c:v>336375.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>399300</c:v>
+                  <c:v>352393.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>417450</c:v>
+                  <c:v>368411.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>435600</c:v>
+                  <c:v>384429.60000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>453750</c:v>
+                  <c:v>400447.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>471900</c:v>
+                  <c:v>416465.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>490050</c:v>
+                  <c:v>432483.3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>508200</c:v>
+                  <c:v>448501.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>526350</c:v>
+                  <c:v>464519.10000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>544500</c:v>
+                  <c:v>480537</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>562650</c:v>
+                  <c:v>496554.9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>580800</c:v>
+                  <c:v>512572.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>598950</c:v>
+                  <c:v>528590.70000000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>617100</c:v>
+                  <c:v>544608.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>635250</c:v>
+                  <c:v>560626.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>653400</c:v>
+                  <c:v>576644.4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>671550</c:v>
+                  <c:v>592662.30000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>689700</c:v>
+                  <c:v>608680.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>707850</c:v>
+                  <c:v>624698.1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>726000</c:v>
+                  <c:v>640716</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>744150</c:v>
+                  <c:v>656733.9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>762300</c:v>
+                  <c:v>672751.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>780450</c:v>
+                  <c:v>688769.70000000007</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>798600</c:v>
+                  <c:v>704787.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>816750</c:v>
+                  <c:v>720805.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>834900</c:v>
+                  <c:v>736823.4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>853050</c:v>
+                  <c:v>752841.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>871200</c:v>
+                  <c:v>768859.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>889350</c:v>
+                  <c:v>784877.1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>907500</c:v>
+                  <c:v>800895</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>925650</c:v>
+                  <c:v>816912.9</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>943800</c:v>
+                  <c:v>832930.8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>961950</c:v>
+                  <c:v>848948.70000000007</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>980100</c:v>
+                  <c:v>864966.6</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>998250</c:v>
+                  <c:v>880984.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1016400</c:v>
+                  <c:v>897002.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1034550</c:v>
+                  <c:v>913020.3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1052700</c:v>
+                  <c:v>929038.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1070850</c:v>
+                  <c:v>945056.1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1089000</c:v>
+                  <c:v>961074</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1107150</c:v>
+                  <c:v>977091.9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1125300</c:v>
+                  <c:v>993109.8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1143450</c:v>
+                  <c:v>1009127.7000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,7 +2859,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3099,193 +3121,193 @@
                       <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                       <c:ptCount val="69"/>
                       <c:pt idx="0">
-                        <c:v>-585053.26923076925</c:v>
+                        <c:v>-583021.16923076927</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-553203.26923076925</c:v>
+                        <c:v>-549139.0692307693</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-521353.26923076925</c:v>
+                        <c:v>-515256.9692307692</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-489503.26923076925</c:v>
+                        <c:v>-481374.86923076923</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-457653.26923076925</c:v>
+                        <c:v>-447492.76923076925</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-425803.26923076925</c:v>
+                        <c:v>-413610.66923076927</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-393953.26923076925</c:v>
+                        <c:v>-379728.5692307693</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-362103.26923076925</c:v>
+                        <c:v>-345846.4692307692</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-330253.26923076925</c:v>
+                        <c:v>-311964.36923076923</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-298403.26923076925</c:v>
+                        <c:v>-278082.26923076925</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-266553.26923076925</c:v>
+                        <c:v>-244200.16923076927</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>-234703.26923076925</c:v>
+                        <c:v>-210318.0692307693</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>-202853.26923076925</c:v>
+                        <c:v>-176435.9692307692</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>-171003.26923076925</c:v>
+                        <c:v>-142553.86923076923</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>-139153.26923076925</c:v>
+                        <c:v>-108671.76923076925</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>-107303.26923076925</c:v>
+                        <c:v>-74789.669230769272</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>-75453.269230769249</c:v>
+                        <c:v>-40907.569230769295</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>-43603.269230769249</c:v>
+                        <c:v>-7025.4692307692021</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>-11753.269230769249</c:v>
+                        <c:v>26856.630769230658</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>20096.730769230751</c:v>
+                        <c:v>60738.730769230751</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>51946.730769230751</c:v>
+                        <c:v>94620.830769230728</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>83796.730769230751</c:v>
+                        <c:v>128502.9307692307</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>115646.73076923075</c:v>
+                        <c:v>162385.0307692308</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>147496.73076923075</c:v>
+                        <c:v>196267.13076923066</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>179346.73076923075</c:v>
+                        <c:v>230149.23076923075</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>211196.73076923075</c:v>
+                        <c:v>264031.33076923073</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>243046.73076923075</c:v>
+                        <c:v>297913.4307692307</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>274896.73076923075</c:v>
+                        <c:v>331795.5307692308</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>306746.73076923075</c:v>
+                        <c:v>365677.63076923066</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>338596.73076923075</c:v>
+                        <c:v>399559.73076923075</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>370446.73076923075</c:v>
+                        <c:v>433441.83076923061</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>402296.73076923075</c:v>
+                        <c:v>467323.9307692307</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>434146.73076923075</c:v>
+                        <c:v>501206.0307692308</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>465996.73076923075</c:v>
+                        <c:v>535088.13076923089</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>497846.73076923075</c:v>
+                        <c:v>568970.23076923075</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>529696.73076923075</c:v>
+                        <c:v>602852.33076923061</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>561546.73076923075</c:v>
+                        <c:v>636734.4307692307</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>593396.73076923075</c:v>
+                        <c:v>670616.5307692308</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>625246.73076923075</c:v>
+                        <c:v>704498.63076923089</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>657096.73076923075</c:v>
+                        <c:v>738380.73076923075</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>688946.73076923075</c:v>
+                        <c:v>772262.83076923061</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>720796.73076923075</c:v>
+                        <c:v>806144.9307692307</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>752646.73076923075</c:v>
+                        <c:v>840027.0307692308</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>784496.73076923075</c:v>
+                        <c:v>873909.13076923089</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>816346.73076923075</c:v>
+                        <c:v>907791.23076923075</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>848196.73076923075</c:v>
+                        <c:v>941673.33076923061</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>880046.73076923075</c:v>
+                        <c:v>975555.4307692307</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>911896.73076923075</c:v>
+                        <c:v>1009437.5307692308</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>943746.73076923075</c:v>
+                        <c:v>1043319.6307692309</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>975596.73076923075</c:v>
+                        <c:v>1077201.7307692308</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>1007446.7307692308</c:v>
+                        <c:v>1111083.8307692306</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>1039296.7307692308</c:v>
+                        <c:v>1144965.9307692307</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>1071146.7307692308</c:v>
+                        <c:v>1178848.0307692308</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>1102996.7307692308</c:v>
+                        <c:v>1212730.1307692309</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>1134846.7307692308</c:v>
+                        <c:v>1246612.2307692308</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>1166696.7307692308</c:v>
+                        <c:v>1280494.3307692306</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>1198546.7307692308</c:v>
+                        <c:v>1314376.4307692307</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>1230396.7307692308</c:v>
+                        <c:v>1348258.5307692308</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>1262246.7307692308</c:v>
+                        <c:v>1382140.6307692309</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>1294096.7307692308</c:v>
+                        <c:v>1416022.7307692308</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>1325946.7307692308</c:v>
+                        <c:v>1449904.8307692306</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>1357796.7307692308</c:v>
+                        <c:v>1483786.9307692307</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>1389646.7307692308</c:v>
+                        <c:v>1517669.0307692308</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3326,7 +3348,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4286,25 +4308,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8E9C5611-B952-4100-A1AE-2D62F814C216}" name="Table2" displayName="Table2" ref="A1:F64" totalsRowShown="0" dataDxfId="4" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8E9C5611-B952-4100-A1AE-2D62F814C216}" name="Table2" displayName="Table2" ref="A1:F64" totalsRowShown="0" dataDxfId="6" dataCellStyle="Currency">
   <autoFilter ref="A1:F64" xr:uid="{E305DE1B-0030-45AB-9DFB-2176E07844F8}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{06320CE8-8F5D-4945-AD46-2829F0CDA4BB}" name="Sales" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{06320CE8-8F5D-4945-AD46-2829F0CDA4BB}" name="Sales" dataDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>A1+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4A9AA6A3-1947-4991-B66C-64819D91CDD6}" name="Gross" dataDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{4A9AA6A3-1947-4991-B66C-64819D91CDD6}" name="Gross" dataDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>UnitPrice*A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D03C48F3-0CC9-44DE-839C-9A56F852CBF4}" name="Profit" dataDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{D03C48F3-0CC9-44DE-839C-9A56F852CBF4}" name="Profit" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>B2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{24BFED6A-18CC-438D-85DA-2EEE62E8ACC9}" name="Fixed Costs" dataDxfId="6" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{24BFED6A-18CC-438D-85DA-2EEE62E8ACC9}" name="Fixed Costs" dataDxfId="2" dataCellStyle="Currency">
       <calculatedColumnFormula>FixedCost</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BBA63F76-2FD6-4AA6-A58C-525885C71535}" name="Variable Costs" dataDxfId="5" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{BBA63F76-2FD6-4AA6-A58C-525885C71535}" name="Variable Costs" dataDxfId="1" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">UnitCost*A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{30A48905-C64E-484D-9748-FC48769DA597}" name="Costs" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{30A48905-C64E-484D-9748-FC48769DA597}" name="Costs" dataDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4612,51 +4634,51 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="11" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="11" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="52"/>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4668,714 +4690,893 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="9"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="43" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="43" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="44"/>
+      <c r="N3" s="47"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="44"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="Q3" s="47"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="15">
         <v>60000</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>60</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="37">
         <v>1125000</v>
       </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="Q4" s="6">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="19">
         <v>53000</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="11">
         <v>75</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="38">
         <f>MaxVolume/13</f>
         <v>86538.461538461532</v>
       </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="Q5" s="39">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="15">
         <v>53000</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="19">
         <v>70000</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="65"/>
-      <c r="M7" s="9"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="15">
         <v>50000</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="19">
         <v>50000</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="45">
+      <c r="K9" s="64">
         <f>K19*L4</f>
         <v>548358.4615384615</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="15">
         <v>50000</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="43" t="s">
+      <c r="L10" s="62"/>
+      <c r="M10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="44"/>
+      <c r="N10" s="47"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="44"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="Q10" s="47"/>
+    </row>
+    <row r="11" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="30">
         <v>60000</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="32" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="45">
+      <c r="K11" s="64">
         <f>K19*L5</f>
         <v>685448.07692307688</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="17" t="s">
+      <c r="L11" s="65"/>
+      <c r="M11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="68"/>
+      <c r="N11" s="61"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="8">
         <f>Q4-Q4*Q5</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+        <v>3.4930000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="14" t="s">
+      <c r="L12" s="62"/>
+      <c r="M12" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="49"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="61">
+      <c r="Q12" s="40">
         <f>Q11-Q23</f>
-        <v>3.1850000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+        <v>3.3882100000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="31">
+      <c r="C13" s="33"/>
+      <c r="D13" s="21">
         <v>150</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="21">
         <v>80</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="21">
         <v>205</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="21">
         <v>12.5</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="21">
         <v>4</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="34">
         <v>0</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="46">
+      <c r="K13" s="44">
         <f>AVERAGE(K9,K11)</f>
         <v>616903.26923076925</v>
       </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="16">
+      <c r="L13" s="45"/>
+      <c r="M13" s="53">
         <f>K9/SteamRevenue</f>
-        <v>172169.06170752324</v>
-      </c>
-      <c r="N13" s="57"/>
+        <v>161843.11525509381</v>
+      </c>
+      <c r="N13" s="54"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="49"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="31">
+      <c r="C15" s="33"/>
+      <c r="D15" s="21">
         <f>D13*12</f>
         <v>1800</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="21">
         <f t="shared" ref="E15:I15" si="0">E13*12</f>
         <v>960</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="21">
         <f>F13*12</f>
         <v>2460</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="21">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="16">
+      <c r="M15" s="53">
         <f>K11/SteamRevenue</f>
-        <v>215211.32713440404</v>
-      </c>
-      <c r="N15" s="57"/>
+        <v>202303.89406886729</v>
+      </c>
+      <c r="N15" s="54"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="30"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="49"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="44"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="Q16" s="47"/>
+    </row>
+    <row r="17" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="50">
+      <c r="C17" s="33">
         <f>SUM(C4:C11)</f>
         <v>446000</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="21">
         <f>D15*COUNTA(D4:D11)</f>
         <v>12600</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="21">
         <f>E15*COUNTA(E4:E11)</f>
         <v>7680</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="21">
         <f>F15*COUNTA(F4:F11)</f>
         <v>7380</v>
       </c>
-      <c r="G17" s="31">
-        <f t="shared" ref="E17:I17" si="1">G15*COUNTA(G4:G11)</f>
+      <c r="G17" s="21">
+        <f t="shared" ref="G17:I17" si="1">G15*COUNTA(G4:G11)</f>
         <v>1200</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="21">
         <f t="shared" si="1"/>
         <v>384</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="58">
+      <c r="M17" s="55">
         <f>FixedCost/SteamRevenue</f>
-        <v>193690.19442096364</v>
-      </c>
-      <c r="N17" s="59"/>
+        <v>182073.50466198058</v>
+      </c>
+      <c r="N17" s="56"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="9">
         <f>TargetVolume*SteamRevenue</f>
-        <v>1378124.9999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+        <v>1466052.4038461538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="30"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="62">
+      <c r="Q18" s="41">
         <f>N5*5</f>
         <v>432692.30769230763</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="52">
+    <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="35">
         <f>C17/52</f>
         <v>8576.9230769230762</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="22">
         <f t="shared" ref="D19:I19" si="2">D17/52</f>
         <v>242.30769230769232</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="22">
         <f t="shared" si="2"/>
         <v>147.69230769230768</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="22">
         <f t="shared" si="2"/>
         <v>141.92307692307693</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="22">
         <f t="shared" si="2"/>
         <v>23.076923076923077</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="22">
         <f t="shared" si="2"/>
         <v>7.384615384615385</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="54">
+      <c r="J19" s="11"/>
+      <c r="K19" s="59">
         <f>SUM(C19:I19)</f>
         <v>9139.3076923076915</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="67"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M20" s="66"/>
-      <c r="N20" s="67"/>
+      <c r="P19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="75">
+        <f>Q17-FixedCost</f>
+        <v>849149.13461538451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="71">
+        <f>C19*AVERAGE(L4,L5)</f>
+        <v>578942.30769230763</v>
+      </c>
+      <c r="D21" s="71">
+        <f>D19*AVERAGE(L4,L5)</f>
+        <v>16355.769230769232</v>
+      </c>
+      <c r="E21" s="71">
+        <f>E19*AVERAGE(L4,L5)</f>
+        <v>9969.2307692307677</v>
+      </c>
+      <c r="F21" s="71">
+        <f>F19*AVERAGE(L4,L5)</f>
+        <v>9579.8076923076933</v>
+      </c>
+      <c r="G21" s="71">
+        <f>G19*AVERAGE(L4,L5)</f>
+        <v>1557.6923076923076</v>
+      </c>
+      <c r="H21" s="71">
+        <f>H19*AVERAGE(L4,L5)</f>
+        <v>498.46153846153851</v>
+      </c>
+      <c r="I21" s="72"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="44"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M22" s="9"/>
+      <c r="Q21" s="47"/>
+    </row>
+    <row r="22" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="73">
+        <f>C21/FixedCost</f>
+        <v>0.93846529361759423</v>
+      </c>
+      <c r="D22" s="73">
+        <f>D21/FixedCost</f>
+        <v>2.6512696635833385E-2</v>
+      </c>
+      <c r="E22" s="73">
+        <f>E21/FixedCost</f>
+        <v>1.6160119854222249E-2</v>
+      </c>
+      <c r="F22" s="73">
+        <f>F21/FixedCost</f>
+        <v>1.5528865172416697E-2</v>
+      </c>
+      <c r="G22" s="73">
+        <f>G21/FixedCost</f>
+        <v>2.5250187272222268E-3</v>
+      </c>
+      <c r="H22" s="73">
+        <f>H21/FixedCost</f>
+        <v>8.0800599271111263E-4</v>
+      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="12">
-        <f>0.09</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="19" t="s">
+      <c r="Q22" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q23" s="61">
+      <c r="Q23" s="40">
         <f>Q11*Q22</f>
-        <v>0.315</v>
+        <v>0.10479000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="69">
+        <f>Q23*TargetVolume</f>
+        <v>45341.826923076922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="76">
+        <v>-675000</v>
+      </c>
+      <c r="C27" s="76">
+        <v>678000</v>
+      </c>
+      <c r="D27" s="76">
+        <v>678000</v>
+      </c>
+      <c r="E27" s="76">
+        <v>678000</v>
+      </c>
+      <c r="F27" s="76">
+        <v>678000</v>
+      </c>
+      <c r="G27" s="76">
+        <v>678000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="74">
+        <v>1</v>
+      </c>
+      <c r="C28" s="74">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D28" s="74">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E28" s="74">
+        <v>0.751</v>
+      </c>
+      <c r="F28" s="74">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G28" s="74">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="76">
+        <f t="shared" ref="B29:F29" si="3">B27*B28</f>
+        <v>-675000</v>
+      </c>
+      <c r="C29" s="76">
+        <f t="shared" si="3"/>
+        <v>616302</v>
+      </c>
+      <c r="D29" s="76">
+        <f t="shared" si="3"/>
+        <v>560028</v>
+      </c>
+      <c r="E29" s="76">
+        <f t="shared" si="3"/>
+        <v>509178</v>
+      </c>
+      <c r="F29" s="76">
+        <f t="shared" si="3"/>
+        <v>463074.00000000006</v>
+      </c>
+      <c r="G29" s="76">
+        <f>G27*G28</f>
+        <v>421038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="76">
+        <f>SUM(B29:G29)</f>
+        <v>1894620</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="76">
+        <f>NPV(0.1,C27:G27)+B27</f>
+        <v>1895153.429658927</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P10:Q10"/>
+  <mergeCells count="30">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M11:N11"/>
@@ -5386,14 +5587,13 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="87" orientation="landscape" r:id="rId1"/>
@@ -5408,13 +5608,13 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="1" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -5434,1679 +5634,1679 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
       <c r="B2" s="2">
-        <f>UnitPrice*A2</f>
-        <v>50000</v>
+        <f t="shared" ref="B2:B33" si="0">UnitPrice*A2</f>
+        <v>49900</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C33" si="0">B2-F2</f>
-        <v>-585053.26923076925</v>
+        <f t="shared" ref="C2:C33" si="1">B2-F2</f>
+        <v>-583021.16923076927</v>
       </c>
       <c r="D2" s="2">
-        <f>FixedCost</f>
+        <f t="shared" ref="D2:D33" si="2">FixedCost</f>
         <v>616903.26923076925</v>
       </c>
       <c r="E2" s="2" cm="1">
         <f t="array" ref="E2">UnitCost*A2</f>
-        <v>18150</v>
+        <v>16017.9</v>
       </c>
       <c r="F2" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>635053.26923076925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>632921.16923076927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>A2+10000</f>
         <v>20000</v>
       </c>
       <c r="B3" s="2">
-        <f>UnitPrice*A3</f>
-        <v>100000</v>
+        <f t="shared" si="0"/>
+        <v>99800</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="0"/>
-        <v>-553203.26923076925</v>
+        <f t="shared" si="1"/>
+        <v>-549139.0692307693</v>
       </c>
       <c r="D3" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E3" s="2" cm="1">
         <f t="array" ref="E3">UnitCost*A3</f>
-        <v>36300</v>
+        <v>32035.8</v>
       </c>
       <c r="F3" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>653203.26923076925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>648939.0692307693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A35" si="1">A3+10000</f>
+        <f t="shared" ref="A4:A35" si="3">A3+10000</f>
         <v>30000</v>
       </c>
       <c r="B4" s="2">
-        <f>UnitPrice*A4</f>
-        <v>150000</v>
+        <f t="shared" si="0"/>
+        <v>149700</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>-521353.26923076925</v>
+        <f t="shared" si="1"/>
+        <v>-515256.9692307692</v>
       </c>
       <c r="D4" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E4" s="2" cm="1">
         <f t="array" ref="E4">UnitCost*A4</f>
-        <v>54450</v>
+        <v>48053.700000000004</v>
       </c>
       <c r="F4" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>671353.26923076925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>664956.9692307692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>199600</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-      <c r="B5" s="2">
-        <f>UnitPrice*A5</f>
-        <v>200000</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>-489503.26923076925</v>
+        <v>-481374.86923076923</v>
       </c>
       <c r="D5" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E5" s="2" cm="1">
         <f t="array" ref="E5">UnitCost*A5</f>
-        <v>72600</v>
+        <v>64071.6</v>
       </c>
       <c r="F5" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>689503.26923076925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>680974.86923076923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>249500</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="B6" s="2">
-        <f>UnitPrice*A6</f>
-        <v>250000</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>-457653.26923076925</v>
+        <v>-447492.76923076925</v>
       </c>
       <c r="D6" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E6" s="2" cm="1">
         <f t="array" ref="E6">UnitCost*A6</f>
-        <v>90750</v>
+        <v>80089.5</v>
       </c>
       <c r="F6" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>707653.26923076925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>696992.76923076925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>299400</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-      <c r="B7" s="2">
-        <f>UnitPrice*A7</f>
-        <v>300000</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>-425803.26923076925</v>
+        <v>-413610.66923076927</v>
       </c>
       <c r="D7" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E7" s="2" cm="1">
         <f t="array" ref="E7">UnitCost*A7</f>
-        <v>108900</v>
+        <v>96107.400000000009</v>
       </c>
       <c r="F7" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>725803.26923076925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>713010.66923076927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>349300</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>70000</v>
-      </c>
-      <c r="B8" s="2">
-        <f>UnitPrice*A8</f>
-        <v>350000</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>-393953.26923076925</v>
+        <v>-379728.5692307693</v>
       </c>
       <c r="D8" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E8" s="2" cm="1">
         <f t="array" ref="E8">UnitCost*A8</f>
-        <v>127050</v>
+        <v>112125.3</v>
       </c>
       <c r="F8" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>743953.26923076925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>729028.5692307693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>399200</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="B9" s="2">
-        <f>UnitPrice*A9</f>
-        <v>400000</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>-362103.26923076925</v>
+        <v>-345846.4692307692</v>
       </c>
       <c r="D9" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E9" s="2" cm="1">
         <f t="array" ref="E9">UnitCost*A9</f>
-        <v>145200</v>
+        <v>128143.2</v>
       </c>
       <c r="F9" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>762103.26923076925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>745046.4692307692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>449100</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>90000</v>
-      </c>
-      <c r="B10" s="2">
-        <f>UnitPrice*A10</f>
-        <v>450000</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>-330253.26923076925</v>
+        <v>-311964.36923076923</v>
       </c>
       <c r="D10" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E10" s="2" cm="1">
         <f t="array" ref="E10">UnitCost*A10</f>
-        <v>163350</v>
+        <v>144161.1</v>
       </c>
       <c r="F10" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>780253.26923076925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>761064.36923076923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>499000</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="B11" s="2">
-        <f>UnitPrice*A11</f>
-        <v>500000</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>-298403.26923076925</v>
+        <v>-278082.26923076925</v>
       </c>
       <c r="D11" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E11" s="2" cm="1">
         <f t="array" ref="E11">UnitCost*A11</f>
-        <v>181500</v>
+        <v>160179</v>
       </c>
       <c r="F11" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>798403.26923076925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>777082.26923076925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>548900</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>110000</v>
-      </c>
-      <c r="B12" s="2">
-        <f>UnitPrice*A12</f>
-        <v>550000</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>-266553.26923076925</v>
+        <v>-244200.16923076927</v>
       </c>
       <c r="D12" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E12" s="2" cm="1">
         <f t="array" ref="E12">UnitCost*A12</f>
-        <v>199650</v>
+        <v>176196.9</v>
       </c>
       <c r="F12" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>816553.26923076925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>793100.16923076927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>598800</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="B13" s="2">
-        <f>UnitPrice*A13</f>
-        <v>600000</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>-234703.26923076925</v>
+        <v>-210318.0692307693</v>
       </c>
       <c r="D13" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E13" s="2" cm="1">
         <f t="array" ref="E13">UnitCost*A13</f>
-        <v>217800</v>
+        <v>192214.80000000002</v>
       </c>
       <c r="F13" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>834703.26923076925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>809118.0692307693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <f t="shared" si="3"/>
+        <v>130000</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>648700</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>130000</v>
-      </c>
-      <c r="B14" s="2">
-        <f>UnitPrice*A14</f>
-        <v>650000</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>-202853.26923076925</v>
+        <v>-176435.9692307692</v>
       </c>
       <c r="D14" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E14" s="2" cm="1">
         <f t="array" ref="E14">UnitCost*A14</f>
-        <v>235950</v>
+        <v>208232.7</v>
       </c>
       <c r="F14" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>852853.26923076925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>825135.9692307692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <f t="shared" si="3"/>
+        <v>140000</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>698600</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
-      <c r="B15" s="2">
-        <f>UnitPrice*A15</f>
-        <v>700000</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>-171003.26923076925</v>
+        <v>-142553.86923076923</v>
       </c>
       <c r="D15" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E15" s="2" cm="1">
         <f t="array" ref="E15">UnitCost*A15</f>
-        <v>254100</v>
+        <v>224250.6</v>
       </c>
       <c r="F15" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>871003.26923076925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>841153.86923076923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>748500</v>
+      </c>
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="B16" s="2">
-        <f>UnitPrice*A16</f>
-        <v>750000</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>-139153.26923076925</v>
+        <v>-108671.76923076925</v>
       </c>
       <c r="D16" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E16" s="2" cm="1">
         <f t="array" ref="E16">UnitCost*A16</f>
-        <v>272250</v>
+        <v>240268.5</v>
       </c>
       <c r="F16" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>889153.26923076925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>857171.76923076925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
+        <f t="shared" si="3"/>
+        <v>160000</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>798400</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>160000</v>
-      </c>
-      <c r="B17" s="2">
-        <f>UnitPrice*A17</f>
-        <v>800000</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>-107303.26923076925</v>
+        <v>-74789.669230769272</v>
       </c>
       <c r="D17" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E17" s="2" cm="1">
         <f t="array" ref="E17">UnitCost*A17</f>
-        <v>290400</v>
+        <v>256286.4</v>
       </c>
       <c r="F17" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>907303.26923076925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>873189.66923076927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
+        <f t="shared" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>848300</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>170000</v>
-      </c>
-      <c r="B18" s="2">
-        <f>UnitPrice*A18</f>
-        <v>850000</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>-75453.269230769249</v>
+        <v>-40907.569230769295</v>
       </c>
       <c r="D18" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E18" s="2" cm="1">
         <f t="array" ref="E18">UnitCost*A18</f>
-        <v>308550</v>
+        <v>272304.3</v>
       </c>
       <c r="F18" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>925453.26923076925</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>889207.5692307693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
+        <f t="shared" si="3"/>
+        <v>180000</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>898200</v>
+      </c>
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>180000</v>
-      </c>
-      <c r="B19" s="2">
-        <f>UnitPrice*A19</f>
-        <v>900000</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>-43603.269230769249</v>
+        <v>-7025.4692307692021</v>
       </c>
       <c r="D19" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E19" s="2" cm="1">
         <f t="array" ref="E19">UnitCost*A19</f>
-        <v>326700</v>
+        <v>288322.2</v>
       </c>
       <c r="F19" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>943603.26923076925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>905225.4692307692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
+        <f t="shared" si="3"/>
+        <v>190000</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>948100</v>
+      </c>
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>190000</v>
-      </c>
-      <c r="B20" s="2">
-        <f>UnitPrice*A20</f>
-        <v>950000</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>-11753.269230769249</v>
+        <v>26856.630769230658</v>
       </c>
       <c r="D20" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E20" s="2" cm="1">
         <f t="array" ref="E20">UnitCost*A20</f>
-        <v>344850</v>
+        <v>304340.10000000003</v>
       </c>
       <c r="F20" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>961753.26923076925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>921243.36923076934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>998000</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="B21" s="2">
-        <f>UnitPrice*A21</f>
-        <v>1000000</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>20096.730769230751</v>
+        <v>60738.730769230751</v>
       </c>
       <c r="D21" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E21" s="2" cm="1">
         <f t="array" ref="E21">UnitCost*A21</f>
-        <v>363000</v>
+        <v>320358</v>
       </c>
       <c r="F21" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>979903.26923076925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>937261.26923076925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
+        <f t="shared" si="3"/>
+        <v>210000</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1047900</v>
+      </c>
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>210000</v>
-      </c>
-      <c r="B22" s="2">
-        <f>UnitPrice*A22</f>
-        <v>1050000</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>51946.730769230751</v>
+        <v>94620.830769230728</v>
       </c>
       <c r="D22" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E22" s="2" cm="1">
         <f t="array" ref="E22">UnitCost*A22</f>
-        <v>381150</v>
+        <v>336375.9</v>
       </c>
       <c r="F22" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>998053.26923076925</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>953279.16923076927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
+        <f t="shared" si="3"/>
+        <v>220000</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>1097800</v>
+      </c>
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>220000</v>
-      </c>
-      <c r="B23" s="2">
-        <f>UnitPrice*A23</f>
-        <v>1100000</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>83796.730769230751</v>
+        <v>128502.9307692307</v>
       </c>
       <c r="D23" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E23" s="2" cm="1">
         <f t="array" ref="E23">UnitCost*A23</f>
-        <v>399300</v>
+        <v>352393.8</v>
       </c>
       <c r="F23" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1016203.2692307692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>969297.0692307693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
+        <f t="shared" si="3"/>
+        <v>230000</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>1147700</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>230000</v>
-      </c>
-      <c r="B24" s="2">
-        <f>UnitPrice*A24</f>
-        <v>1150000</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>115646.73076923075</v>
+        <v>162385.0307692308</v>
       </c>
       <c r="D24" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E24" s="2" cm="1">
         <f t="array" ref="E24">UnitCost*A24</f>
-        <v>417450</v>
+        <v>368411.7</v>
       </c>
       <c r="F24" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1034353.2692307692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>985314.9692307692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
+        <f t="shared" si="3"/>
+        <v>240000</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>1197600</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>240000</v>
-      </c>
-      <c r="B25" s="2">
-        <f>UnitPrice*A25</f>
-        <v>1200000</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>147496.73076923075</v>
+        <v>196267.13076923066</v>
       </c>
       <c r="D25" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E25" s="2" cm="1">
         <f t="array" ref="E25">UnitCost*A25</f>
-        <v>435600</v>
+        <v>384429.60000000003</v>
       </c>
       <c r="F25" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1052503.2692307692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1001332.8692307693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>1247500</v>
+      </c>
+      <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="B26" s="2">
-        <f>UnitPrice*A26</f>
-        <v>1250000</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="0"/>
-        <v>179346.73076923075</v>
+        <v>230149.23076923075</v>
       </c>
       <c r="D26" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E26" s="2" cm="1">
         <f t="array" ref="E26">UnitCost*A26</f>
-        <v>453750</v>
+        <v>400447.5</v>
       </c>
       <c r="F26" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1070653.2692307692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1017350.7692307692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
+        <f t="shared" si="3"/>
+        <v>260000</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>1297400</v>
+      </c>
+      <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>260000</v>
-      </c>
-      <c r="B27" s="2">
-        <f>UnitPrice*A27</f>
-        <v>1300000</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="0"/>
-        <v>211196.73076923075</v>
+        <v>264031.33076923073</v>
       </c>
       <c r="D27" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E27" s="2" cm="1">
         <f t="array" ref="E27">UnitCost*A27</f>
-        <v>471900</v>
+        <v>416465.4</v>
       </c>
       <c r="F27" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1088803.2692307692</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1033368.6692307693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
+        <f t="shared" si="3"/>
+        <v>270000</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>1347300</v>
+      </c>
+      <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="B28" s="2">
-        <f>UnitPrice*A28</f>
-        <v>1350000</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="0"/>
-        <v>243046.73076923075</v>
+        <v>297913.4307692307</v>
       </c>
       <c r="D28" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E28" s="2" cm="1">
         <f t="array" ref="E28">UnitCost*A28</f>
-        <v>490050</v>
+        <v>432483.3</v>
       </c>
       <c r="F28" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1106953.2692307692</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1049386.5692307693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
+        <f t="shared" si="3"/>
+        <v>280000</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>1397200</v>
+      </c>
+      <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>280000</v>
-      </c>
-      <c r="B29" s="2">
-        <f>UnitPrice*A29</f>
-        <v>1400000</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="0"/>
-        <v>274896.73076923075</v>
+        <v>331795.5307692308</v>
       </c>
       <c r="D29" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E29" s="2" cm="1">
         <f t="array" ref="E29">UnitCost*A29</f>
-        <v>508200</v>
+        <v>448501.2</v>
       </c>
       <c r="F29" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1125103.2692307692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1065404.4692307692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
+        <f t="shared" si="3"/>
+        <v>290000</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>1447100</v>
+      </c>
+      <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>290000</v>
-      </c>
-      <c r="B30" s="2">
-        <f>UnitPrice*A30</f>
-        <v>1450000</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="0"/>
-        <v>306746.73076923075</v>
+        <v>365677.63076923066</v>
       </c>
       <c r="D30" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E30" s="2" cm="1">
         <f t="array" ref="E30">UnitCost*A30</f>
-        <v>526350</v>
+        <v>464519.10000000003</v>
       </c>
       <c r="F30" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1143253.2692307692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1081422.3692307693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
+        <f t="shared" si="3"/>
+        <v>300000</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>1497000</v>
+      </c>
+      <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="B31" s="2">
-        <f>UnitPrice*A31</f>
-        <v>1500000</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="0"/>
-        <v>338596.73076923075</v>
+        <v>399559.73076923075</v>
       </c>
       <c r="D31" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E31" s="2" cm="1">
         <f t="array" ref="E31">UnitCost*A31</f>
-        <v>544500</v>
+        <v>480537</v>
       </c>
       <c r="F31" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1161403.2692307692</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1097440.2692307692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
+        <f t="shared" si="3"/>
+        <v>310000</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>1546900</v>
+      </c>
+      <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>310000</v>
-      </c>
-      <c r="B32" s="2">
-        <f>UnitPrice*A32</f>
-        <v>1550000</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>370446.73076923075</v>
+        <v>433441.83076923061</v>
       </c>
       <c r="D32" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E32" s="2" cm="1">
         <f t="array" ref="E32">UnitCost*A32</f>
-        <v>562650</v>
+        <v>496554.9</v>
       </c>
       <c r="F32" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1179553.2692307692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1113458.1692307694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
+        <f t="shared" si="3"/>
+        <v>320000</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>1596800</v>
+      </c>
+      <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>320000</v>
-      </c>
-      <c r="B33" s="2">
-        <f>UnitPrice*A33</f>
-        <v>1600000</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="0"/>
-        <v>402296.73076923075</v>
+        <v>467323.9307692307</v>
       </c>
       <c r="D33" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="2"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E33" s="2" cm="1">
         <f t="array" ref="E33">UnitCost*A33</f>
-        <v>580800</v>
+        <v>512572.8</v>
       </c>
       <c r="F33" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1197703.2692307692</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1129476.0692307693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>330000</v>
       </c>
       <c r="B34" s="2">
-        <f>UnitPrice*A34</f>
-        <v>1650000</v>
+        <f t="shared" ref="B34:B65" si="4">UnitPrice*A34</f>
+        <v>1646700</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34:C65" si="2">B34-F34</f>
-        <v>434146.73076923075</v>
+        <f t="shared" ref="C34:C64" si="5">B34-F34</f>
+        <v>501206.0307692308</v>
       </c>
       <c r="D34" s="2">
-        <f>FixedCost</f>
+        <f t="shared" ref="D34:D64" si="6">FixedCost</f>
         <v>616903.26923076925</v>
       </c>
       <c r="E34" s="2" cm="1">
         <f t="array" ref="E34">UnitCost*A34</f>
-        <v>598950</v>
+        <v>528590.70000000007</v>
       </c>
       <c r="F34" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1215853.2692307692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1145493.9692307692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>340000</v>
       </c>
       <c r="B35" s="2">
-        <f>UnitPrice*A35</f>
-        <v>1700000</v>
+        <f t="shared" si="4"/>
+        <v>1696600</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="2"/>
-        <v>465996.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>535088.13076923089</v>
       </c>
       <c r="D35" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E35" s="2" cm="1">
         <f t="array" ref="E35">UnitCost*A35</f>
-        <v>617100</v>
+        <v>544608.6</v>
       </c>
       <c r="F35" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1234003.2692307692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1161511.8692307691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" ref="A36:A70" si="3">A35+10000</f>
+        <f t="shared" ref="A36:A64" si="7">A35+10000</f>
         <v>350000</v>
       </c>
       <c r="B36" s="2">
-        <f>UnitPrice*A36</f>
-        <v>1750000</v>
+        <f t="shared" si="4"/>
+        <v>1746500</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="2"/>
-        <v>497846.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>568970.23076923075</v>
       </c>
       <c r="D36" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E36" s="2" cm="1">
         <f t="array" ref="E36">UnitCost*A36</f>
-        <v>635250</v>
+        <v>560626.5</v>
       </c>
       <c r="F36" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1252153.2692307692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1177529.7692307692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>360000</v>
       </c>
       <c r="B37" s="2">
-        <f>UnitPrice*A37</f>
-        <v>1800000</v>
+        <f t="shared" si="4"/>
+        <v>1796400</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="2"/>
-        <v>529696.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>602852.33076923061</v>
       </c>
       <c r="D37" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E37" s="2" cm="1">
         <f t="array" ref="E37">UnitCost*A37</f>
-        <v>653400</v>
+        <v>576644.4</v>
       </c>
       <c r="F37" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1270303.2692307692</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1193547.6692307694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>370000</v>
       </c>
       <c r="B38" s="2">
-        <f>UnitPrice*A38</f>
-        <v>1850000</v>
+        <f t="shared" si="4"/>
+        <v>1846300</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="2"/>
-        <v>561546.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>636734.4307692307</v>
       </c>
       <c r="D38" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E38" s="2" cm="1">
         <f t="array" ref="E38">UnitCost*A38</f>
-        <v>671550</v>
+        <v>592662.30000000005</v>
       </c>
       <c r="F38" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1288453.2692307692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1209565.5692307693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>380000</v>
       </c>
       <c r="B39" s="2">
-        <f>UnitPrice*A39</f>
-        <v>1900000</v>
+        <f t="shared" si="4"/>
+        <v>1896200</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="2"/>
-        <v>593396.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>670616.5307692308</v>
       </c>
       <c r="D39" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E39" s="2" cm="1">
         <f t="array" ref="E39">UnitCost*A39</f>
-        <v>689700</v>
+        <v>608680.20000000007</v>
       </c>
       <c r="F39" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1306603.2692307692</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1225583.4692307692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>390000</v>
       </c>
       <c r="B40" s="2">
-        <f>UnitPrice*A40</f>
-        <v>1950000</v>
+        <f t="shared" si="4"/>
+        <v>1946100</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="2"/>
-        <v>625246.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>704498.63076923089</v>
       </c>
       <c r="D40" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E40" s="2" cm="1">
         <f t="array" ref="E40">UnitCost*A40</f>
-        <v>707850</v>
+        <v>624698.1</v>
       </c>
       <c r="F40" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1324753.2692307692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1241601.3692307691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
       <c r="B41" s="2">
-        <f>UnitPrice*A41</f>
-        <v>2000000</v>
+        <f t="shared" si="4"/>
+        <v>1996000</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="2"/>
-        <v>657096.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>738380.73076923075</v>
       </c>
       <c r="D41" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E41" s="2" cm="1">
         <f t="array" ref="E41">UnitCost*A41</f>
-        <v>726000</v>
+        <v>640716</v>
       </c>
       <c r="F41" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1342903.2692307692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1257619.2692307692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>410000</v>
       </c>
       <c r="B42" s="2">
-        <f>UnitPrice*A42</f>
-        <v>2050000</v>
+        <f t="shared" si="4"/>
+        <v>2045900</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="2"/>
-        <v>688946.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>772262.83076923061</v>
       </c>
       <c r="D42" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E42" s="2" cm="1">
         <f t="array" ref="E42">UnitCost*A42</f>
-        <v>744150</v>
+        <v>656733.9</v>
       </c>
       <c r="F42" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1361053.2692307692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1273637.1692307694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>420000</v>
       </c>
       <c r="B43" s="2">
-        <f>UnitPrice*A43</f>
-        <v>2100000</v>
+        <f t="shared" si="4"/>
+        <v>2095800</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="2"/>
-        <v>720796.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>806144.9307692307</v>
       </c>
       <c r="D43" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E43" s="2" cm="1">
         <f t="array" ref="E43">UnitCost*A43</f>
-        <v>762300</v>
+        <v>672751.8</v>
       </c>
       <c r="F43" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1379203.2692307692</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1289655.0692307693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>430000</v>
       </c>
       <c r="B44" s="2">
-        <f>UnitPrice*A44</f>
-        <v>2150000</v>
+        <f t="shared" si="4"/>
+        <v>2145700</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="2"/>
-        <v>752646.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>840027.0307692308</v>
       </c>
       <c r="D44" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E44" s="2" cm="1">
         <f t="array" ref="E44">UnitCost*A44</f>
-        <v>780450</v>
+        <v>688769.70000000007</v>
       </c>
       <c r="F44" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1397353.2692307692</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1305672.9692307692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>440000</v>
       </c>
       <c r="B45" s="2">
-        <f>UnitPrice*A45</f>
-        <v>2200000</v>
+        <f t="shared" si="4"/>
+        <v>2195600</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="2"/>
-        <v>784496.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>873909.13076923089</v>
       </c>
       <c r="D45" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E45" s="2" cm="1">
         <f t="array" ref="E45">UnitCost*A45</f>
-        <v>798600</v>
+        <v>704787.6</v>
       </c>
       <c r="F45" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1415503.2692307692</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1321690.8692307691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>450000</v>
       </c>
       <c r="B46" s="2">
-        <f>UnitPrice*A46</f>
-        <v>2250000</v>
+        <f t="shared" si="4"/>
+        <v>2245500</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="2"/>
-        <v>816346.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>907791.23076923075</v>
       </c>
       <c r="D46" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E46" s="2" cm="1">
         <f t="array" ref="E46">UnitCost*A46</f>
-        <v>816750</v>
+        <v>720805.5</v>
       </c>
       <c r="F46" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1433653.2692307692</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1337708.7692307692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>460000</v>
       </c>
       <c r="B47" s="2">
-        <f>UnitPrice*A47</f>
-        <v>2300000</v>
+        <f t="shared" si="4"/>
+        <v>2295400</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="2"/>
-        <v>848196.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>941673.33076923061</v>
       </c>
       <c r="D47" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E47" s="2" cm="1">
         <f t="array" ref="E47">UnitCost*A47</f>
-        <v>834900</v>
+        <v>736823.4</v>
       </c>
       <c r="F47" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1451803.2692307692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1353726.6692307694</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>470000</v>
       </c>
       <c r="B48" s="2">
-        <f>UnitPrice*A48</f>
-        <v>2350000</v>
+        <f t="shared" si="4"/>
+        <v>2345300</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="2"/>
-        <v>880046.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>975555.4307692307</v>
       </c>
       <c r="D48" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E48" s="2" cm="1">
         <f t="array" ref="E48">UnitCost*A48</f>
-        <v>853050</v>
+        <v>752841.3</v>
       </c>
       <c r="F48" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1469953.2692307692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1369744.5692307693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>480000</v>
       </c>
       <c r="B49" s="2">
-        <f>UnitPrice*A49</f>
-        <v>2400000</v>
+        <f t="shared" si="4"/>
+        <v>2395200</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="2"/>
-        <v>911896.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>1009437.5307692308</v>
       </c>
       <c r="D49" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E49" s="2" cm="1">
         <f t="array" ref="E49">UnitCost*A49</f>
-        <v>871200</v>
+        <v>768859.20000000007</v>
       </c>
       <c r="F49" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1488103.2692307692</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1385762.4692307692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>490000</v>
       </c>
       <c r="B50" s="2">
-        <f>UnitPrice*A50</f>
-        <v>2450000</v>
+        <f t="shared" si="4"/>
+        <v>2445100</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="2"/>
-        <v>943746.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>1043319.6307692309</v>
       </c>
       <c r="D50" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E50" s="2" cm="1">
         <f t="array" ref="E50">UnitCost*A50</f>
-        <v>889350</v>
+        <v>784877.1</v>
       </c>
       <c r="F50" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1506253.2692307692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1401780.3692307691</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>500000</v>
       </c>
       <c r="B51" s="2">
-        <f>UnitPrice*A51</f>
-        <v>2500000</v>
+        <f t="shared" si="4"/>
+        <v>2495000</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="2"/>
-        <v>975596.73076923075</v>
+        <f t="shared" si="5"/>
+        <v>1077201.7307692308</v>
       </c>
       <c r="D51" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E51" s="2" cm="1">
         <f t="array" ref="E51">UnitCost*A51</f>
-        <v>907500</v>
+        <v>800895</v>
       </c>
       <c r="F51" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1524403.2692307692</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1417798.2692307692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>510000</v>
       </c>
       <c r="B52" s="2">
-        <f>UnitPrice*A52</f>
-        <v>2550000</v>
+        <f t="shared" si="4"/>
+        <v>2544900</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="2"/>
-        <v>1007446.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1111083.8307692306</v>
       </c>
       <c r="D52" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E52" s="2" cm="1">
         <f t="array" ref="E52">UnitCost*A52</f>
-        <v>925650</v>
+        <v>816912.9</v>
       </c>
       <c r="F52" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1542553.2692307692</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1433816.1692307694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>520000</v>
       </c>
       <c r="B53" s="2">
-        <f>UnitPrice*A53</f>
-        <v>2600000</v>
+        <f t="shared" si="4"/>
+        <v>2594800</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="2"/>
-        <v>1039296.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1144965.9307692307</v>
       </c>
       <c r="D53" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E53" s="2" cm="1">
         <f t="array" ref="E53">UnitCost*A53</f>
-        <v>943800</v>
+        <v>832930.8</v>
       </c>
       <c r="F53" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1560703.2692307692</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1449834.0692307693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>530000</v>
       </c>
       <c r="B54" s="2">
-        <f>UnitPrice*A54</f>
-        <v>2650000</v>
+        <f t="shared" si="4"/>
+        <v>2644700</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="2"/>
-        <v>1071146.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1178848.0307692308</v>
       </c>
       <c r="D54" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E54" s="2" cm="1">
         <f t="array" ref="E54">UnitCost*A54</f>
-        <v>961950</v>
+        <v>848948.70000000007</v>
       </c>
       <c r="F54" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1578853.2692307692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1465851.9692307692</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>540000</v>
       </c>
       <c r="B55" s="2">
-        <f>UnitPrice*A55</f>
-        <v>2700000</v>
+        <f t="shared" si="4"/>
+        <v>2694600</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="2"/>
-        <v>1102996.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1212730.1307692309</v>
       </c>
       <c r="D55" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E55" s="2" cm="1">
         <f t="array" ref="E55">UnitCost*A55</f>
-        <v>980100</v>
+        <v>864966.6</v>
       </c>
       <c r="F55" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1597003.2692307692</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1481869.8692307691</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>550000</v>
       </c>
       <c r="B56" s="2">
-        <f>UnitPrice*A56</f>
-        <v>2750000</v>
+        <f t="shared" si="4"/>
+        <v>2744500</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="2"/>
-        <v>1134846.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1246612.2307692308</v>
       </c>
       <c r="D56" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E56" s="2" cm="1">
         <f t="array" ref="E56">UnitCost*A56</f>
-        <v>998250</v>
+        <v>880984.5</v>
       </c>
       <c r="F56" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1615153.2692307692</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1497887.7692307692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>560000</v>
       </c>
       <c r="B57" s="2">
-        <f>UnitPrice*A57</f>
-        <v>2800000</v>
+        <f t="shared" si="4"/>
+        <v>2794400</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="2"/>
-        <v>1166696.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1280494.3307692306</v>
       </c>
       <c r="D57" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E57" s="2" cm="1">
         <f t="array" ref="E57">UnitCost*A57</f>
-        <v>1016400</v>
+        <v>897002.4</v>
       </c>
       <c r="F57" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1633303.2692307692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1513905.6692307694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>570000</v>
       </c>
       <c r="B58" s="2">
-        <f>UnitPrice*A58</f>
-        <v>2850000</v>
+        <f t="shared" si="4"/>
+        <v>2844300</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" si="2"/>
-        <v>1198546.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1314376.4307692307</v>
       </c>
       <c r="D58" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E58" s="2" cm="1">
         <f t="array" ref="E58">UnitCost*A58</f>
-        <v>1034550</v>
+        <v>913020.3</v>
       </c>
       <c r="F58" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1651453.2692307692</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1529923.5692307693</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>580000</v>
       </c>
       <c r="B59" s="2">
-        <f>UnitPrice*A59</f>
-        <v>2900000</v>
+        <f t="shared" si="4"/>
+        <v>2894200</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="2"/>
-        <v>1230396.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1348258.5307692308</v>
       </c>
       <c r="D59" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E59" s="2" cm="1">
         <f t="array" ref="E59">UnitCost*A59</f>
-        <v>1052700</v>
+        <v>929038.20000000007</v>
       </c>
       <c r="F59" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1669603.2692307692</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1545941.4692307692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>590000</v>
       </c>
       <c r="B60" s="2">
-        <f>UnitPrice*A60</f>
-        <v>2950000</v>
+        <f t="shared" si="4"/>
+        <v>2944100</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" si="2"/>
-        <v>1262246.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1382140.6307692309</v>
       </c>
       <c r="D60" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E60" s="2" cm="1">
         <f t="array" ref="E60">UnitCost*A60</f>
-        <v>1070850</v>
+        <v>945056.1</v>
       </c>
       <c r="F60" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1687753.2692307692</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1561959.3692307691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
       <c r="B61" s="2">
-        <f>UnitPrice*A61</f>
-        <v>3000000</v>
+        <f t="shared" si="4"/>
+        <v>2994000</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" si="2"/>
-        <v>1294096.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1416022.7307692308</v>
       </c>
       <c r="D61" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E61" s="2" cm="1">
         <f t="array" ref="E61">UnitCost*A61</f>
-        <v>1089000</v>
+        <v>961074</v>
       </c>
       <c r="F61" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1705903.2692307692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1577977.2692307692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>610000</v>
       </c>
       <c r="B62" s="2">
-        <f>UnitPrice*A62</f>
-        <v>3050000</v>
+        <f t="shared" si="4"/>
+        <v>3043900</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="2"/>
-        <v>1325946.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1449904.8307692306</v>
       </c>
       <c r="D62" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E62" s="2" cm="1">
         <f t="array" ref="E62">UnitCost*A62</f>
-        <v>1107150</v>
+        <v>977091.9</v>
       </c>
       <c r="F62" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1724053.2692307692</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1593995.1692307694</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>620000</v>
       </c>
       <c r="B63" s="2">
-        <f>UnitPrice*A63</f>
-        <v>3100000</v>
+        <f t="shared" si="4"/>
+        <v>3093800</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" si="2"/>
-        <v>1357796.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1483786.9307692307</v>
       </c>
       <c r="D63" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E63" s="2" cm="1">
         <f t="array" ref="E63">UnitCost*A63</f>
-        <v>1125300</v>
+        <v>993109.8</v>
       </c>
       <c r="F63" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1742203.2692307692</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1610013.0692307693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>630000</v>
       </c>
       <c r="B64" s="2">
-        <f>UnitPrice*A64</f>
-        <v>3150000</v>
+        <f t="shared" si="4"/>
+        <v>3143700</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="2"/>
-        <v>1389646.7307692308</v>
+        <f t="shared" si="5"/>
+        <v>1517669.0307692308</v>
       </c>
       <c r="D64" s="2">
-        <f>FixedCost</f>
+        <f t="shared" si="6"/>
         <v>616903.26923076925</v>
       </c>
       <c r="E64" s="2" cm="1">
         <f t="array" ref="E64">UnitCost*A64</f>
-        <v>1143450</v>
+        <v>1009127.7000000001</v>
       </c>
       <c r="F64" s="2">
         <f>Table2[[#This Row],[Fixed Costs]]+Table2[[#This Row],[Variable Costs]]</f>
-        <v>1760353.2692307692</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1626030.9692307692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
